--- a/biology/Médecine/Artère_profonde_du_bras/Artère_profonde_du_bras.xlsx
+++ b/biology/Médecine/Artère_profonde_du_bras/Artère_profonde_du_bras.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_profonde_du_bras</t>
+          <t>Artère_profonde_du_bras</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'artère profonde du bras (ou artère humérale profonde ou artère collatérale externe du bras) est une artère du bras.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_profonde_du_bras</t>
+          <t>Artère_profonde_du_bras</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'artère profonde du bras nait de l'artère brachiale juste sous le rebord du muscle petit rond.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_profonde_du_bras</t>
+          <t>Artère_profonde_du_bras</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'artère profonde du bras se dirige vers le bas, en dehors et en arrière en passant entre les chefs long et médial du muscle triceps brachial et à l'arrière de l'humérus. Elle chemine avec le nerf radial dans le sillon du nerf radial. Elle passe à travers le septum intermusculaire latéral en descendant entre le muscle brachio-radial et le muscle brachial pour se terminer au niveau du bord externe de l'humérus en donnant l'artère collatérale médiale et l'artère collatérale radiale.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_profonde_du_bras</t>
+          <t>Artère_profonde_du_bras</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Zone d'irrigation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'artère profonde du bras donne des branches au muscle deltoïde.
 Elle peut émettre une artère nourricière de l’humérus qui pénètre dans l'humérus derrière la tubérosité deltoïdienne.
